--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฌ(8).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฌ(8).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8275DE-7287-514E-8559-801E44FBE8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9D8275DE-7287-514E-8559-801E44FBE8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7A0A0D-8126-457C-873C-BA28709BAADA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="2805" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>ฌาปนสถาน</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๒ เรียกว่า ฌอ เฌอ เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น.</t>
-  </si>
-  <si>
     <t>น. ภาวะที่จิตสงบแน่วแน่เนื่องมาจากการเพ่งอารมณ์ หรือการเพ่งอารมณ์จนจิตแน่วแน่เป็นสมาธิ แบ่งเป็น ๒ ประเภท คือ รูปฌาน กับ อรูปฌาน.</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>ดู การฌาปนกิจสงเคราะห์.</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๒ เรียกว่า ฌอ เฌอ เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น.</t>
   </si>
 </sst>
 </file>
@@ -468,19 +468,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,94 +491,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2"/>
     </row>
